--- a/examples/USA OGD/gun offenders/gun_offenders_profile.xlsx
+++ b/examples/USA OGD/gun offenders/gun_offenders_profile.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,62 +443,62 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>attribute_count</t>
+          <t>sum</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>median</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>stddev</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>stddev</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_value</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>min_value</t>
+          <t>max_value</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>max_value</t>
+          <t>min_len</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>min_len</t>
+          <t>max_len</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>max_len</t>
+          <t>null_count</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>null_count</t>
+          <t>blank_count</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>blank_count</t>
+          <t>negative_count</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -445,35 +513,40 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
+          <t>least_frequent_value</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>least_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>most_frequent_count</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>negative_count</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>csim</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -497,7 +570,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -512,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" t="n">
         <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -542,25 +615,30 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>044J12261</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>f??</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>8</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>166</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>17</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>['01K04873', '023A10838', '026C09059', '026K19034', '036G07553', '039H04732', '03L03830', '043L16294', '044J12261', '106A12593', '106D13687', '106D13999', '106D88900', '106F10599', '106F11867', '106F14206', 'f??']</t>
         </is>
@@ -584,7 +662,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -599,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3" t="n">
         <v>-1</v>
       </c>
       <c r="L3" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -629,25 +707,30 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>Guilty</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>21</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>140</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>['60', 'GIUTLY', 'Guilty', 'guilty']</t>
         </is>
@@ -671,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -686,51 +769,56 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4" t="n">
         <v>-1</v>
       </c>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>07/18/2012</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
         <v>12</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>12</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>116</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>['02/18/2011', '03/28/2012', '04/13/2012', '07/18/2012', '07/26/2010', '1/02/2013', '1/11/2013', '10/23/2012', '10/24/2012', '12/27/2011', '8/09/2012']</t>
         </is>
@@ -754,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -769,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" t="n">
         <v>-1</v>
       </c>
       <c r="L5" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -799,25 +887,30 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>Baltimore</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>Incarcerated</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>17</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>1</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>267</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>2</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>['Baltimore', 'Incarcerated']</t>
         </is>
@@ -841,7 +934,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -856,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" t="n">
         <v>-1</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -886,25 +979,30 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>Percy</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>Joseph</t>
         </is>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>141</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>23</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>['Abram', 'Antonio', 'Bobby', 'Brian', 'Corey', 'Damaim', 'Damien', 'Demetrius', 'Donald', 'Harold', 'James', 'Jason', 'Jonathan', 'Joseph', 'Joshua', 'Kali', 'Kevin', 'Mark', 'Markie', 'Melvin', 'Percy', 'Sterling', 'Terrell']</t>
         </is>
@@ -928,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -943,51 +1041,56 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
       <c r="L7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Mendell</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>118</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>18</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>['Alexander', 'Anton', 'Beau', 'Clinton', 'Costello', 'Dante', 'Domminick', 'Donnell', 'Lee', 'Leroy', 'Lowell', 'Malcolm', 'Mendell', 'Robert', 'Taylor', 'Timothy', 'Van', 'Woodard']</t>
         </is>
@@ -1011,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1026,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" t="n">
         <v>-1</v>
       </c>
       <c r="L8" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1056,25 +1159,30 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>Griffin</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>156</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>23</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>['Actie', 'Alston', 'Barber', 'Bowens', 'Cole', 'Cummings', 'Griffin', 'Hall', 'Hamlet', 'Johnson', 'Kennedy', 'Mayes', 'Mcclurkin', 'Melton', 'Moody', 'Moulton', 'Oliver', 'Porter', 'Saunders', 'Singfield', 'Taylor', 'Thompson', 'Williams']</t>
         </is>
@@ -1098,70 +1206,75 @@
         <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>3658</v>
       </c>
       <c r="F9" t="n">
-        <v>3658</v>
+        <v>152.4166666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>152.4166666666667</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>631.8984451061233</v>
       </c>
       <c r="I9" t="n">
-        <v>631.8984451061233</v>
+        <v>399295.6449275363</v>
       </c>
       <c r="J9" t="n">
-        <v>399295.6449275363</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>18</v>
+        <v>3119</v>
       </c>
       <c r="L9" t="n">
-        <v>3119</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
         <v>4</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>50</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>14</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>['18', '19', '20', '21', '22', '23', '24', '25', '27', '30', '31', '3119', '33', '37']</t>
         </is>
@@ -1185,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1200,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" t="n">
         <v>-1</v>
       </c>
       <c r="L10" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1236,19 +1349,24 @@
       <c r="T10" t="n">
         <v>24</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="V10" t="n">
+        <v>24</v>
+      </c>
+      <c r="W10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>96</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>1</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>['Male']</t>
         </is>
@@ -1272,7 +1390,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1287,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" t="n">
         <v>-1</v>
       </c>
       <c r="L11" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1323,19 +1441,24 @@
       <c r="T11" t="n">
         <v>24</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="V11" t="n">
+        <v>24</v>
+      </c>
+      <c r="W11" t="n">
         <v>1</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>120</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>1</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>['Black']</t>
         </is>
@@ -1359,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1374,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="n">
         <v>-1</v>
       </c>
       <c r="L12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1404,25 +1527,30 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>SOUTHWESTERN</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>NORTHWESTERN</t>
         </is>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>10</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>1</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>216</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>7</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>['EASTERN', 'NORTHEASTERN', 'NORTHERN', 'NORTHWESTERN', 'SOUTHEASTERN', 'SOUTHWESTERN', 'WESTERN']</t>
         </is>
@@ -1446,66 +1574,71 @@
         <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>10565</v>
       </c>
       <c r="F13" t="n">
-        <v>10565</v>
+        <v>528.25</v>
       </c>
       <c r="G13" t="n">
-        <v>528.25</v>
+        <v>616.5</v>
       </c>
       <c r="H13" t="n">
-        <v>616.5</v>
+        <v>173.4030519369617</v>
       </c>
       <c r="I13" t="n">
-        <v>173.4030519369617</v>
+        <v>30068.61842105263</v>
       </c>
       <c r="J13" t="n">
-        <v>30068.61842105263</v>
+        <v>211</v>
       </c>
       <c r="K13" t="n">
-        <v>211</v>
+        <v>834</v>
       </c>
       <c r="L13" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
         <v>4</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>60</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>17</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>['211', '213', '315', '321', '334', '421', '435', '522', '612', '621', '622', '623', '624', '632', '634', '733', '834']</t>
         </is>
@@ -1529,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1544,51 +1677,56 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" t="n">
         <v>-1</v>
       </c>
       <c r="L14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Johnston Square</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0.408</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>232</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>20</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>['Arlington', 'Cedmont', 'Central Park Heights', 'Dolfield', 'Dorchester', 'Fallstaff', 'Glen Oaks', 'Johnston Square', 'Jonestown', 'Madison-Eastend', 'Millhill', 'New Northwood', 'Oliver', 'Panway/Braddish Avenue', 'Park Circle', 'Penn North', 'Purnell', 'Washington Hill', 'West Forest Park', 'Windsor Hills']</t>
         </is>
@@ -1612,7 +1750,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1627,51 +1765,56 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" t="n">
         <v>-1</v>
       </c>
       <c r="L15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N15" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>(39.30124191480, -76.61067474690)</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>660</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>20</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>['(39.27776397470, -76.65970139070)', '(39.29153626510, -76.59283389250)', '(39.29332478400, -76.60628205430)', '(39.29925861590, -76.57811432180)', '(39.30124191480, -76.61067474690)', '(39.30950718280, -76.59628873780)', '(39.31261200620, -76.64367365640)', '(39.31453005690, -76.66321280780)', '(39.31590114090, -76.69209786750)', '(39.31895779670, -76.68905693920)', '(39.32026313800, -76.70992740660)', '(39.33026869930, -76.66134014310)', '(39.33354300370, -76.68324117770)', '(39.33514308290, -76.68253455510)', '(39.34058323510, -76.66650766080)', '(39.34570941610, -76.53174310380)', '(39.34671664470, -76.68137170660)', '(39.35086409000, -76.59773732820)', '(39.36324635090, -76.70866424490)', '(39.36795070060, -76.59786994640)']</t>
         </is>
